--- a/SAMPLE UPLOAD/upload stok.xlsx
+++ b/SAMPLE UPLOAD/upload stok.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\SAMPLE UPLOAD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5550"/>
   </bookViews>
@@ -88,13 +93,13 @@
     <t>VIRTUAL_ACCOUNT</t>
   </si>
   <si>
-    <t>VX-02</t>
+    <t>ANCOL01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +433,12 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>80</v>
